--- a/7_Suspension/Fichiers_Suspension/Commentaire Suspension ZN.xlsx
+++ b/7_Suspension/Fichiers_Suspension/Commentaire Suspension ZN.xlsx
@@ -49,7 +49,7 @@
     <t>Commentaire</t>
   </si>
   <si>
-    <t>CEMRN2SP_1022</t>
+    <t>CEMRJ1CO_1013</t>
   </si>
 </sst>
 </file>
